--- a/garbagelist.xlsx
+++ b/garbagelist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>GarbageCoins</t>
   </si>
@@ -141,13 +141,275 @@
   </si>
   <si>
     <t>kolion</t>
+  </si>
+  <si>
+    <t>primalbase</t>
+  </si>
+  <si>
+    <t>808coin</t>
+  </si>
+  <si>
+    <t>b3coin</t>
+  </si>
+  <si>
+    <t>photon</t>
+  </si>
+  <si>
+    <t>gcoin</t>
+  </si>
+  <si>
+    <t>bunnycoin</t>
+  </si>
+  <si>
+    <t>dix-asset</t>
+  </si>
+  <si>
+    <t>fluttercoin</t>
+  </si>
+  <si>
+    <t>bitbean</t>
+  </si>
+  <si>
+    <t>redcoin</t>
+  </si>
+  <si>
+    <t>enigma</t>
+  </si>
+  <si>
+    <t>bnrtxcoin</t>
+  </si>
+  <si>
+    <t>milocoin</t>
+  </si>
+  <si>
+    <t>slevin</t>
+  </si>
+  <si>
+    <t>benjirolls</t>
+  </si>
+  <si>
+    <t>solarflarecoin</t>
+  </si>
+  <si>
+    <t>luna-coin</t>
+  </si>
+  <si>
+    <t>doubloon</t>
+  </si>
+  <si>
+    <t>bitcoal</t>
+  </si>
+  <si>
+    <t>aerium</t>
+  </si>
+  <si>
+    <t>fuzzballs</t>
+  </si>
+  <si>
+    <t>exchangen</t>
+  </si>
+  <si>
+    <t>virta-unique-coin</t>
+  </si>
+  <si>
+    <t>coinonat</t>
+  </si>
+  <si>
+    <t>chancoin</t>
+  </si>
+  <si>
+    <t>kayicoin</t>
+  </si>
+  <si>
+    <t>mutual-coin</t>
+  </si>
+  <si>
+    <t>hexx</t>
+  </si>
+  <si>
+    <t>ammo-rewards</t>
+  </si>
+  <si>
+    <t>marijuanacoin</t>
+  </si>
+  <si>
+    <t>litecoin-ultra</t>
+  </si>
+  <si>
+    <t>blakestar</t>
+  </si>
+  <si>
+    <t>prime-xi</t>
+  </si>
+  <si>
+    <t>gapcoin</t>
+  </si>
+  <si>
+    <t>ethereum-dark</t>
+  </si>
+  <si>
+    <t>coinonatx</t>
+  </si>
+  <si>
+    <t>vaperscoin</t>
+  </si>
+  <si>
+    <t>zcash-gold</t>
+  </si>
+  <si>
+    <t>digicube</t>
+  </si>
+  <si>
+    <t>bitcoin-red</t>
+  </si>
+  <si>
+    <t>petrodollar</t>
+  </si>
+  <si>
+    <t>campuscoin</t>
+  </si>
+  <si>
+    <t>litebitcoin</t>
+  </si>
+  <si>
+    <t>evergreencoin</t>
+  </si>
+  <si>
+    <t>pioneer-coin</t>
+  </si>
+  <si>
+    <t>sooncoin</t>
+  </si>
+  <si>
+    <t>moin</t>
+  </si>
+  <si>
+    <t>zetacoin</t>
+  </si>
+  <si>
+    <t>influxcoin</t>
+  </si>
+  <si>
+    <t>unitus</t>
+  </si>
+  <si>
+    <t>netcoin</t>
+  </si>
+  <si>
+    <t>daxxcoin</t>
+  </si>
+  <si>
+    <t>unbreakablecoin</t>
+  </si>
+  <si>
+    <t>parkbyte</t>
+  </si>
+  <si>
+    <t>xgox</t>
+  </si>
+  <si>
+    <t>condensate</t>
+  </si>
+  <si>
+    <t>e-gulden</t>
+  </si>
+  <si>
+    <t>buzzcoin</t>
+  </si>
+  <si>
+    <t>regalcoin</t>
+  </si>
+  <si>
+    <t>breakout</t>
+  </si>
+  <si>
+    <t>breakout-stake</t>
+  </si>
+  <si>
+    <t>europecoin</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>goldcoin</t>
+  </si>
+  <si>
+    <t>korecoin</t>
+  </si>
+  <si>
+    <t>ethereum-blue</t>
+  </si>
+  <si>
+    <t>auroracoin</t>
+  </si>
+  <si>
+    <t>dotcoin</t>
+  </si>
+  <si>
+    <t>pesetacoin</t>
+  </si>
+  <si>
+    <t>hyperstake</t>
+  </si>
+  <si>
+    <t>artbyte</t>
+  </si>
+  <si>
+    <t>dopecoin</t>
+  </si>
+  <si>
+    <t>startcoin</t>
+  </si>
+  <si>
+    <t>trueflip</t>
+  </si>
+  <si>
+    <t>pandacoin-pnd</t>
+  </si>
+  <si>
+    <t>curecoin</t>
+  </si>
+  <si>
+    <t>vcash</t>
+  </si>
+  <si>
+    <t>spreadcoin</t>
+  </si>
+  <si>
+    <t>atbcoin</t>
+  </si>
+  <si>
+    <t>cannabiscoin</t>
+  </si>
+  <si>
+    <t>energycoin</t>
+  </si>
+  <si>
+    <t>swarm-city</t>
+  </si>
+  <si>
+    <t>databits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +435,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,11 +764,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -695,6 +965,817 @@
         <v>38</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="5"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="5"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="5"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="5"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="5"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="5"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="5"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="5"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="5"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="5"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="5"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="5"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="5"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="5"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="5"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="5"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="5"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="5"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="5"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="5"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="5"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="N124" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/garbagelist.xlsx
+++ b/garbagelist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>GarbageCoins</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>databits</t>
+  </si>
+  <si>
+    <t>putincoin</t>
+  </si>
+  <si>
+    <t>nushares</t>
   </si>
 </sst>
 </file>
@@ -398,9 +404,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -444,10 +450,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -766,7 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="S98" sqref="S98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1751,7 +1759,9 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="E123" s="6"/>
@@ -1764,7 +1774,9 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="E124" s="6"/>

--- a/garbagelist.xlsx
+++ b/garbagelist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
   <si>
     <t>GarbageCoins</t>
   </si>
@@ -396,16 +396,420 @@
   </si>
   <si>
     <t>nushares</t>
+  </si>
+  <si>
+    <t>nolimitcoin</t>
+  </si>
+  <si>
+    <t>potcoin</t>
+  </si>
+  <si>
+    <t>synereo</t>
+  </si>
+  <si>
+    <t>dimecoin</t>
+  </si>
+  <si>
+    <t>myriad</t>
+  </si>
+  <si>
+    <t>sibcoin</t>
+  </si>
+  <si>
+    <t>mintcoin</t>
+  </si>
+  <si>
+    <t>mothership</t>
+  </si>
+  <si>
+    <t>bitcore</t>
+  </si>
+  <si>
+    <t>okcash</t>
+  </si>
+  <si>
+    <t>heat-ledger</t>
+  </si>
+  <si>
+    <t>posw-coin</t>
+  </si>
+  <si>
+    <t>hush</t>
+  </si>
+  <si>
+    <t>geocoin</t>
+  </si>
+  <si>
+    <t>clams</t>
+  </si>
+  <si>
+    <t>bitmark</t>
+  </si>
+  <si>
+    <t>monacocoin</t>
+  </si>
+  <si>
+    <t>sexcoin</t>
+  </si>
+  <si>
+    <t>zeitcoin</t>
+  </si>
+  <si>
+    <t>bitcoin-plus</t>
+  </si>
+  <si>
+    <t>novacoin</t>
+  </si>
+  <si>
+    <t>bitcloud</t>
+  </si>
+  <si>
+    <t>masternodecoin</t>
+  </si>
+  <si>
+    <t>syndicate</t>
+  </si>
+  <si>
+    <t>dnotes</t>
+  </si>
+  <si>
+    <t>encryptotel</t>
+  </si>
+  <si>
+    <t>chaincoin</t>
+  </si>
+  <si>
+    <t>worldcoin</t>
+  </si>
+  <si>
+    <t>smartbillions</t>
+  </si>
+  <si>
+    <t>royal-kingdom-coin</t>
+  </si>
+  <si>
+    <t>audiocoin</t>
+  </si>
+  <si>
+    <t>footy-cash</t>
+  </si>
+  <si>
+    <t>terracoin</t>
+  </si>
+  <si>
+    <t>litedoge</t>
+  </si>
+  <si>
+    <t>bonpay</t>
+  </si>
+  <si>
+    <t>creativecoin</t>
+  </si>
+  <si>
+    <t>fujicoin</t>
+  </si>
+  <si>
+    <t>digitalprice</t>
+  </si>
+  <si>
+    <t>karbowanec</t>
+  </si>
+  <si>
+    <t>denarius-dnr</t>
+  </si>
+  <si>
+    <t>dinastycoin</t>
+  </si>
+  <si>
+    <t>mazacoin</t>
+  </si>
+  <si>
+    <t>interstellar-holdings</t>
+  </si>
+  <si>
+    <t>cryptogenic-bullion</t>
+  </si>
+  <si>
+    <t>inflationcoin</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>fastcoin</t>
+  </si>
+  <si>
+    <t>smartcoin</t>
+  </si>
+  <si>
+    <t>trumpcoin</t>
+  </si>
+  <si>
+    <t>tittiecoin</t>
+  </si>
+  <si>
+    <t>leviarcoin</t>
+  </si>
+  <si>
+    <t>bata</t>
+  </si>
+  <si>
+    <t>kekcoin</t>
+  </si>
+  <si>
+    <t>lanacoin</t>
+  </si>
+  <si>
+    <t>growers-international</t>
+  </si>
+  <si>
+    <t>kurrent</t>
+  </si>
+  <si>
+    <t>bitradio</t>
+  </si>
+  <si>
+    <t>insanecoin-insn</t>
+  </si>
+  <si>
+    <t>confido</t>
+  </si>
+  <si>
+    <t>incakoin</t>
+  </si>
+  <si>
+    <t>qubitcoin</t>
+  </si>
+  <si>
+    <t>arcticcoin</t>
+  </si>
+  <si>
+    <t>digitalcoin</t>
+  </si>
+  <si>
+    <t>russiacoin</t>
+  </si>
+  <si>
+    <t>i0coin</t>
+  </si>
+  <si>
+    <t>triangles</t>
+  </si>
+  <si>
+    <t>canada-ecoin</t>
+  </si>
+  <si>
+    <t>piggycoin</t>
+  </si>
+  <si>
+    <t>ultracoin</t>
+  </si>
+  <si>
+    <t>kobocoin</t>
+  </si>
+  <si>
+    <t>atomic-coin</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>machinecoin</t>
+  </si>
+  <si>
+    <t>bitcoin-scrypt</t>
+  </si>
+  <si>
+    <t>netko</t>
+  </si>
+  <si>
+    <t>procurrency</t>
+  </si>
+  <si>
+    <t>42-coin</t>
+  </si>
+  <si>
+    <t>pascal-lite</t>
+  </si>
+  <si>
+    <t>the-cypherfunks</t>
+  </si>
+  <si>
+    <t>opal</t>
+  </si>
+  <si>
+    <t>teslacoin</t>
+  </si>
+  <si>
+    <t>popularcoin</t>
+  </si>
+  <si>
+    <t>phoenixcoin</t>
+  </si>
+  <si>
+    <t>spacecoin</t>
+  </si>
+  <si>
+    <t>hobonickels</t>
+  </si>
+  <si>
+    <t>platinumbar</t>
+  </si>
+  <si>
+    <t>purevidz</t>
+  </si>
+  <si>
+    <t>pakcoin</t>
+  </si>
+  <si>
+    <t>guncoin</t>
+  </si>
+  <si>
+    <t>kushcoin</t>
+  </si>
+  <si>
+    <t>droxne</t>
+  </si>
+  <si>
+    <t>8bit</t>
+  </si>
+  <si>
+    <t>bitcoinfast</t>
+  </si>
+  <si>
+    <t>swagbucks</t>
+  </si>
+  <si>
+    <t>coin2-1</t>
+  </si>
+  <si>
+    <t>macron</t>
+  </si>
+  <si>
+    <t>tattoocoin</t>
+  </si>
+  <si>
+    <t>blakecoin</t>
+  </si>
+  <si>
+    <t>joulecoin</t>
+  </si>
+  <si>
+    <t>aricoin</t>
+  </si>
+  <si>
+    <t>c-bit</t>
+  </si>
+  <si>
+    <t>catcoin</t>
+  </si>
+  <si>
+    <t>emerald</t>
+  </si>
+  <si>
+    <t>chesscoin</t>
+  </si>
+  <si>
+    <t>chronos</t>
+  </si>
+  <si>
+    <t>octocoin</t>
+  </si>
+  <si>
+    <t>globalboost-y</t>
+  </si>
+  <si>
+    <t>monkey-project</t>
+  </si>
+  <si>
+    <t>icobid</t>
+  </si>
+  <si>
+    <t>eurocoin</t>
+  </si>
+  <si>
+    <t>dfscoin</t>
+  </si>
+  <si>
+    <t>sterlingcoin</t>
+  </si>
+  <si>
+    <t>soilcoin</t>
+  </si>
+  <si>
+    <t>dalecoin</t>
+  </si>
+  <si>
+    <t>argentum</t>
+  </si>
+  <si>
+    <t>eryllium</t>
+  </si>
+  <si>
+    <t>motocoin</t>
+  </si>
+  <si>
+    <t>bitgem</t>
+  </si>
+  <si>
+    <t>ronpaulcoin</t>
+  </si>
+  <si>
+    <t>gameunits</t>
+  </si>
+  <si>
+    <t>revolvercoin</t>
+  </si>
+  <si>
+    <t>philosopher-stones</t>
+  </si>
+  <si>
+    <t>x-coin</t>
+  </si>
+  <si>
+    <t>sixeleven</t>
+  </si>
+  <si>
+    <t>goldpieces</t>
+  </si>
+  <si>
+    <t>paycon</t>
+  </si>
+  <si>
+    <t>gpu-coin</t>
+  </si>
+  <si>
+    <t>acoin</t>
+  </si>
+  <si>
+    <t>allion</t>
+  </si>
+  <si>
+    <t>gold-pressed-latinum</t>
+  </si>
+  <si>
+    <t>leacoin</t>
+  </si>
+  <si>
+    <t>bipcoin</t>
+  </si>
+  <si>
+    <t>cthulhu-offerings</t>
+  </si>
+  <si>
+    <t>coimatic-3</t>
+  </si>
+  <si>
+    <t>argus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -446,14 +850,16 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -770,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:O260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="S98" sqref="S98"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,8 +1610,7 @@
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
+      <c r="E85" s="5"/>
       <c r="H85" s="4"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -1219,8 +1624,7 @@
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="5"/>
       <c r="H86" s="4"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -1234,8 +1638,7 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="5"/>
       <c r="H87" s="4"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -1249,8 +1652,7 @@
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
+      <c r="E88" s="5"/>
       <c r="H88" s="4"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -1264,8 +1666,7 @@
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="5"/>
       <c r="H89" s="4"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -1279,8 +1680,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
+      <c r="E90" s="5"/>
       <c r="H90" s="4"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -1294,8 +1694,7 @@
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="5"/>
       <c r="H91" s="4"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -1309,8 +1708,7 @@
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
+      <c r="E92" s="5"/>
       <c r="H92" s="4"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -1324,8 +1722,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
+      <c r="E93" s="5"/>
       <c r="H93" s="4"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -1339,8 +1736,7 @@
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
+      <c r="E94" s="5"/>
       <c r="H94" s="4"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -1354,8 +1750,7 @@
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
+      <c r="E95" s="5"/>
       <c r="H95" s="4"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -1369,8 +1764,7 @@
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="H96" s="4"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -1389,8 +1783,7 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
+      <c r="E98" s="5"/>
       <c r="H98" s="4"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -1404,8 +1797,7 @@
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
+      <c r="E99" s="5"/>
       <c r="H99" s="4"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -1419,8 +1811,7 @@
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="H100" s="4"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -1434,8 +1825,7 @@
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
+      <c r="E101" s="5"/>
       <c r="H101" s="4"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -1449,8 +1839,7 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="5"/>
+      <c r="E102" s="5"/>
       <c r="H102" s="4"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -1464,8 +1853,7 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="H103" s="4"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -1479,8 +1867,7 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="5"/>
+      <c r="E104" s="5"/>
       <c r="H104" s="4"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -1494,8 +1881,7 @@
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="5"/>
+      <c r="E105" s="5"/>
       <c r="H105" s="4"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -1509,8 +1895,7 @@
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="5"/>
+      <c r="E106" s="5"/>
       <c r="H106" s="4"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -1524,8 +1909,7 @@
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="5"/>
+      <c r="E107" s="5"/>
       <c r="H107" s="4"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -1539,8 +1923,7 @@
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="5"/>
+      <c r="E108" s="5"/>
       <c r="H108" s="4"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -1554,8 +1937,7 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="5"/>
+      <c r="E109" s="5"/>
       <c r="H109" s="4"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -1569,8 +1951,7 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="5"/>
+      <c r="E110" s="5"/>
       <c r="H110" s="4"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -1584,8 +1965,7 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
+      <c r="E111" s="5"/>
       <c r="H111" s="4"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -1599,8 +1979,7 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="5"/>
+      <c r="E112" s="5"/>
       <c r="H112" s="4"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -1614,8 +1993,7 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="5"/>
+      <c r="E113" s="5"/>
       <c r="H113" s="4"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -1629,8 +2007,7 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="5"/>
+      <c r="E114" s="5"/>
       <c r="H114" s="4"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -1644,8 +2021,7 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="5"/>
+      <c r="E115" s="5"/>
       <c r="H115" s="4"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -1659,8 +2035,7 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="5"/>
+      <c r="E116" s="5"/>
       <c r="H116" s="4"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -1674,8 +2049,7 @@
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="5"/>
+      <c r="E117" s="5"/>
       <c r="H117" s="4"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -1689,8 +2063,7 @@
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="5"/>
+      <c r="E118" s="5"/>
       <c r="H118" s="4"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -1704,8 +2077,7 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="5"/>
+      <c r="E119" s="5"/>
       <c r="H119" s="4"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -1719,8 +2091,7 @@
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="5"/>
+      <c r="E120" s="5"/>
       <c r="H120" s="4"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -1734,8 +2105,7 @@
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="5"/>
+      <c r="E121" s="5"/>
       <c r="H121" s="4"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -1749,8 +2119,7 @@
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="5"/>
+      <c r="E122" s="5"/>
       <c r="H122" s="4"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -1764,8 +2133,7 @@
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="5"/>
+      <c r="E123" s="5"/>
       <c r="H123" s="4"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -1779,8 +2147,7 @@
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="5"/>
+      <c r="E124" s="5"/>
       <c r="H124" s="4"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -1788,6 +2155,922 @@
       <c r="L124" s="2"/>
       <c r="N124" s="1"/>
     </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>202</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="4"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="6"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>189</v>
+      </c>
+      <c r="H195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>167</v>
+      </c>
+      <c r="H216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="6"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>168</v>
+      </c>
+      <c r="H217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="N217" s="7"/>
+      <c r="O217" s="6"/>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>166</v>
+      </c>
+      <c r="H218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="N218" s="7"/>
+      <c r="O218" s="6"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>157</v>
+      </c>
+      <c r="H219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="N219" s="7"/>
+      <c r="O219" s="6"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>153</v>
+      </c>
+      <c r="H220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="N220" s="7"/>
+      <c r="O220" s="6"/>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>135</v>
+      </c>
+      <c r="H221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="N221" s="7"/>
+      <c r="O221" s="6"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>152</v>
+      </c>
+      <c r="H222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="N222" s="7"/>
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>165</v>
+      </c>
+      <c r="H223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="N223" s="7"/>
+      <c r="O223" s="6"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>164</v>
+      </c>
+      <c r="H224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="N224" s="7"/>
+      <c r="O224" s="6"/>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>163</v>
+      </c>
+      <c r="H225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="N225" s="7"/>
+      <c r="O225" s="6"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>160</v>
+      </c>
+      <c r="H226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="N226" s="7"/>
+      <c r="O226" s="6"/>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>161</v>
+      </c>
+      <c r="H227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="N227" s="7"/>
+      <c r="O227" s="6"/>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>162</v>
+      </c>
+      <c r="H228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="N228" s="7"/>
+      <c r="O228" s="6"/>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>156</v>
+      </c>
+      <c r="H229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="N229" s="7"/>
+      <c r="O229" s="6"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>158</v>
+      </c>
+      <c r="H230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="N230" s="7"/>
+      <c r="O230" s="6"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>159</v>
+      </c>
+      <c r="H231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="N231" s="7"/>
+      <c r="O231" s="6"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>151</v>
+      </c>
+      <c r="H232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="N232" s="7"/>
+      <c r="O232" s="6"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>154</v>
+      </c>
+      <c r="H233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="N233" s="7"/>
+      <c r="O233" s="6"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>155</v>
+      </c>
+      <c r="H234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="L234" s="4"/>
+      <c r="N234" s="7"/>
+      <c r="O234" s="6"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>146</v>
+      </c>
+      <c r="H235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="N235" s="7"/>
+      <c r="O235" s="6"/>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>150</v>
+      </c>
+      <c r="H236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="N236" s="7"/>
+      <c r="O236" s="6"/>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>149</v>
+      </c>
+      <c r="H237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="N237" s="7"/>
+      <c r="O237" s="6"/>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>141</v>
+      </c>
+      <c r="H238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="N238" s="7"/>
+      <c r="O238" s="6"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>148</v>
+      </c>
+      <c r="H239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="L239" s="4"/>
+      <c r="N239" s="7"/>
+      <c r="O239" s="6"/>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>147</v>
+      </c>
+      <c r="H240" s="4"/>
+      <c r="J240" s="4"/>
+      <c r="L240" s="4"/>
+      <c r="N240" s="7"/>
+      <c r="O240" s="6"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>145</v>
+      </c>
+      <c r="H241" s="4"/>
+      <c r="J241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="N241" s="7"/>
+      <c r="O241" s="6"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>144</v>
+      </c>
+      <c r="H242" s="4"/>
+      <c r="J242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="N242" s="7"/>
+      <c r="O242" s="6"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>143</v>
+      </c>
+      <c r="H243" s="4"/>
+      <c r="J243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="N243" s="7"/>
+      <c r="O243" s="6"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>142</v>
+      </c>
+      <c r="H244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="N244" s="7"/>
+      <c r="O244" s="6"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>136</v>
+      </c>
+      <c r="H245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="N245" s="7"/>
+      <c r="O245" s="6"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>140</v>
+      </c>
+      <c r="H246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="N246" s="7"/>
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>139</v>
+      </c>
+      <c r="H247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="N247" s="7"/>
+      <c r="O247" s="6"/>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>131</v>
+      </c>
+      <c r="H248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="L248" s="4"/>
+      <c r="N248" s="7"/>
+      <c r="O248" s="6"/>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>138</v>
+      </c>
+      <c r="H249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="N249" s="7"/>
+      <c r="O249" s="6"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>137</v>
+      </c>
+      <c r="H250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="N250" s="7"/>
+      <c r="O250" s="6"/>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>134</v>
+      </c>
+      <c r="H251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="N251" s="7"/>
+      <c r="O251" s="6"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>133</v>
+      </c>
+      <c r="H252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="N252" s="7"/>
+      <c r="O252" s="6"/>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>132</v>
+      </c>
+      <c r="H253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="N253" s="7"/>
+      <c r="O253" s="6"/>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>124</v>
+      </c>
+      <c r="H254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="N254" s="7"/>
+      <c r="O254" s="6"/>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>125</v>
+      </c>
+      <c r="H255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="N255" s="7"/>
+      <c r="O255" s="6"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>126</v>
+      </c>
+      <c r="H256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="6"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>127</v>
+      </c>
+      <c r="H257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="N257" s="7"/>
+      <c r="O257" s="6"/>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>128</v>
+      </c>
+      <c r="H258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="L258" s="4"/>
+      <c r="N258" s="7"/>
+      <c r="O258" s="6"/>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>129</v>
+      </c>
+      <c r="H259" s="4"/>
+      <c r="J259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="N259" s="7"/>
+      <c r="O259" s="6"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>130</v>
+      </c>
+      <c r="H260" s="4"/>
+      <c r="J260" s="4"/>
+      <c r="L260" s="4"/>
+      <c r="N260" s="7"/>
+      <c r="O260" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/garbagelist.xlsx
+++ b/garbagelist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="406">
   <si>
     <t>GarbageCoins</t>
   </si>
@@ -801,6 +801,447 @@
   </si>
   <si>
     <t>argus</t>
+  </si>
+  <si>
+    <t>bitcoin-silver</t>
+  </si>
+  <si>
+    <t>bestchain</t>
+  </si>
+  <si>
+    <t>namocoin</t>
+  </si>
+  <si>
+    <t>sharkcoin</t>
+  </si>
+  <si>
+    <t>magnetcoin</t>
+  </si>
+  <si>
+    <t>pluscoin</t>
+  </si>
+  <si>
+    <t>francs</t>
+  </si>
+  <si>
+    <t>skeincoin</t>
+  </si>
+  <si>
+    <t>topcoin</t>
+  </si>
+  <si>
+    <t>granitecoin</t>
+  </si>
+  <si>
+    <t>cubits</t>
+  </si>
+  <si>
+    <t>compcoin</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>wearesatoshi</t>
+  </si>
+  <si>
+    <t>animecoin</t>
+  </si>
+  <si>
+    <t>win-coin</t>
+  </si>
+  <si>
+    <t>ox-fina</t>
+  </si>
+  <si>
+    <t>magiccoin</t>
+  </si>
+  <si>
+    <t>bitcedi</t>
+  </si>
+  <si>
+    <t>sakuracoin</t>
+  </si>
+  <si>
+    <t>elacoin</t>
+  </si>
+  <si>
+    <t>creatio</t>
+  </si>
+  <si>
+    <t>cybercoin</t>
+  </si>
+  <si>
+    <t>ecobit</t>
+  </si>
+  <si>
+    <t>mojocoin</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>arcade-token</t>
+  </si>
+  <si>
+    <t>shacoin</t>
+  </si>
+  <si>
+    <t>boolberry</t>
+  </si>
+  <si>
+    <t>rubycoin</t>
+  </si>
+  <si>
+    <t>qwark</t>
+  </si>
+  <si>
+    <t>fonziecoin</t>
+  </si>
+  <si>
+    <t>ixcoin</t>
+  </si>
+  <si>
+    <t>scorecoin</t>
+  </si>
+  <si>
+    <t>songcoin</t>
+  </si>
+  <si>
+    <t>gaia</t>
+  </si>
+  <si>
+    <t>quatloo</t>
+  </si>
+  <si>
+    <t>gxshares</t>
+  </si>
+  <si>
+    <t>evotion</t>
+  </si>
+  <si>
+    <t>visio</t>
+  </si>
+  <si>
+    <t>sphre-air</t>
+  </si>
+  <si>
+    <t>bitbar</t>
+  </si>
+  <si>
+    <t>beavercoin</t>
+  </si>
+  <si>
+    <t>tigercoin</t>
+  </si>
+  <si>
+    <t>piecoin</t>
+  </si>
+  <si>
+    <t>deuscoin</t>
+  </si>
+  <si>
+    <t>enigma-project</t>
+  </si>
+  <si>
+    <t>musiconomi</t>
+  </si>
+  <si>
+    <t>mustangcoin</t>
+  </si>
+  <si>
+    <t>independent-money-system</t>
+  </si>
+  <si>
+    <t>dashcoin</t>
+  </si>
+  <si>
+    <t>jetcoin</t>
+  </si>
+  <si>
+    <t>fazzcoin</t>
+  </si>
+  <si>
+    <t>electroneum</t>
+  </si>
+  <si>
+    <t>dibcoin</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>truckcoin</t>
+  </si>
+  <si>
+    <t>rchain</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>terranova</t>
+  </si>
+  <si>
+    <t>halcyon</t>
+  </si>
+  <si>
+    <t>beatcoin</t>
+  </si>
+  <si>
+    <t>apx</t>
+  </si>
+  <si>
+    <t>gaycoin</t>
+  </si>
+  <si>
+    <t>ratecoin</t>
+  </si>
+  <si>
+    <t>kittehcoin</t>
+  </si>
+  <si>
+    <t>reddcoin</t>
+  </si>
+  <si>
+    <t>cryptcoin</t>
+  </si>
+  <si>
+    <t>nyancoin</t>
+  </si>
+  <si>
+    <t>embercoin</t>
+  </si>
+  <si>
+    <t>casinocoin</t>
+  </si>
+  <si>
+    <t>infinitecoin</t>
+  </si>
+  <si>
+    <t>minex</t>
+  </si>
+  <si>
+    <t>irishcoin</t>
+  </si>
+  <si>
+    <t>rabbitcoin</t>
+  </si>
+  <si>
+    <t>everus</t>
+  </si>
+  <si>
+    <t>edrcoin</t>
+  </si>
+  <si>
+    <t>encryptotel-eth</t>
+  </si>
+  <si>
+    <t>royalties</t>
+  </si>
+  <si>
+    <t>homeblockcoin</t>
+  </si>
+  <si>
+    <t>bongger</t>
+  </si>
+  <si>
+    <t>bitcoin-diamond</t>
+  </si>
+  <si>
+    <t>lightning-bitcoin</t>
+  </si>
+  <si>
+    <t>kubera-coin</t>
+  </si>
+  <si>
+    <t>strikebitclub</t>
+  </si>
+  <si>
+    <t>adcoin</t>
+  </si>
+  <si>
+    <t>plexcoin</t>
+  </si>
+  <si>
+    <t>iquant</t>
+  </si>
+  <si>
+    <t>corion</t>
+  </si>
+  <si>
+    <t>fireflycoin</t>
+  </si>
+  <si>
+    <t>rcoin</t>
+  </si>
+  <si>
+    <t>lepen</t>
+  </si>
+  <si>
+    <t>alphabitcoinfund</t>
+  </si>
+  <si>
+    <t>international-diamond</t>
+  </si>
+  <si>
+    <t>batcoin</t>
+  </si>
+  <si>
+    <t>santa-coin</t>
+  </si>
+  <si>
+    <t>nubits</t>
+  </si>
+  <si>
+    <t>altcoin-alt</t>
+  </si>
+  <si>
+    <t>fantomcoin</t>
+  </si>
+  <si>
+    <t>titcoin</t>
+  </si>
+  <si>
+    <t>orbitcoin</t>
+  </si>
+  <si>
+    <t>lottocoin</t>
+  </si>
+  <si>
+    <t>rimbit</t>
+  </si>
+  <si>
+    <t>iticoin</t>
+  </si>
+  <si>
+    <t>goldreserve</t>
+  </si>
+  <si>
+    <t>prototanium</t>
+  </si>
+  <si>
+    <t>berncash</t>
+  </si>
+  <si>
+    <t>kronecoin</t>
+  </si>
+  <si>
+    <t>darsek</t>
+  </si>
+  <si>
+    <t>securecoin</t>
+  </si>
+  <si>
+    <t>icoin</t>
+  </si>
+  <si>
+    <t>freicoin</t>
+  </si>
+  <si>
+    <t>ecocoin</t>
+  </si>
+  <si>
+    <t>spots</t>
+  </si>
+  <si>
+    <t>compucoin</t>
+  </si>
+  <si>
+    <t>namecoin</t>
+  </si>
+  <si>
+    <t>decent-bet</t>
+  </si>
+  <si>
+    <t>wild-crypto</t>
+  </si>
+  <si>
+    <t>primecoin</t>
+  </si>
+  <si>
+    <t>1337coin</t>
+  </si>
+  <si>
+    <t>dcorp</t>
+  </si>
+  <si>
+    <t>bitdeal</t>
+  </si>
+  <si>
+    <t>starcredits</t>
+  </si>
+  <si>
+    <t>etheriya</t>
+  </si>
+  <si>
+    <t>bitstar</t>
+  </si>
+  <si>
+    <t>aurumcoin</t>
+  </si>
+  <si>
+    <t>cannacoin</t>
+  </si>
+  <si>
+    <t>deutsche-emark</t>
+  </si>
+  <si>
+    <t>colossuscoin-v2</t>
+  </si>
+  <si>
+    <t>evil-coin</t>
+  </si>
+  <si>
+    <t>marscoin</t>
+  </si>
+  <si>
+    <t>unicoin</t>
+  </si>
+  <si>
+    <t>bolivarcoin</t>
+  </si>
+  <si>
+    <t>litebar</t>
+  </si>
+  <si>
+    <t>mineum</t>
+  </si>
+  <si>
+    <t>postcoin</t>
+  </si>
+  <si>
+    <t>sativacoin</t>
+  </si>
+  <si>
+    <t>blazecoin</t>
+  </si>
+  <si>
+    <t>bumbacoin</t>
+  </si>
+  <si>
+    <t>parallelcoin</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>aquariuscoin</t>
+  </si>
+  <si>
+    <t>jin-coin</t>
+  </si>
+  <si>
+    <t>tajcoin</t>
+  </si>
+  <si>
+    <t>nevacoin</t>
+  </si>
+  <si>
+    <t>300-token</t>
+  </si>
+  <si>
+    <t>megacoin</t>
   </si>
 </sst>
 </file>
@@ -810,7 +1251,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000000000_);_(* \(#,##0.00000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -856,7 +1297,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1176,11 +1617,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O260"/>
+  <dimension ref="A1:O407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3071,6 +3510,741 @@
       <c r="N260" s="7"/>
       <c r="O260" s="6"/>
     </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/garbagelist.xlsx
+++ b/garbagelist.xlsx
@@ -1619,7 +1619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
